--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,22 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="19440" windowHeight="12840" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="19440" windowHeight="12840" tabRatio="917" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="U1 to Harcourt" sheetId="1" r:id="rId1"/>
-    <sheet name="U1 to Wheatley" sheetId="2" r:id="rId2"/>
+    <sheet name="U1 to Harcourt MF" sheetId="1" r:id="rId1"/>
+    <sheet name="U1 to Wheatley MF" sheetId="2" r:id="rId2"/>
     <sheet name="U1 Sat to Harcourt" sheetId="3" r:id="rId3"/>
     <sheet name="U1 Sat to Wheatley" sheetId="5" r:id="rId4"/>
     <sheet name="U1 Sun to Harcourt" sheetId="4" r:id="rId5"/>
     <sheet name="U1 Sun to Wheatley" sheetId="6" r:id="rId6"/>
+    <sheet name="summer U1 Harcourt MF" sheetId="7" r:id="rId7"/>
+    <sheet name="summer U1 Wheatley MF" sheetId="8" r:id="rId8"/>
+    <sheet name="summer U1 harcourt Sat" sheetId="9" r:id="rId9"/>
+    <sheet name="summer U1 Wheatley Sat" sheetId="10" r:id="rId10"/>
+    <sheet name="summer U1 harcourt Sun" sheetId="11" r:id="rId11"/>
+    <sheet name="summer U1 wheatley Sun" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="25">
   <si>
     <t xml:space="preserve">Service No </t>
   </si>
@@ -83,6 +89,18 @@
   <si>
     <t xml:space="preserve">Station Square R8 </t>
   </si>
+  <si>
+    <t xml:space="preserve">St Aldates </t>
+  </si>
+  <si>
+    <t>Service Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFORD High Street Carfax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frideswide Square R9 </t>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +147,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +166,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -357,6 +381,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2780,11 +2849,1975 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD11"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="40">
+        <v>755</v>
+      </c>
+      <c r="C2" s="40">
+        <v>825</v>
+      </c>
+      <c r="D2" s="40">
+        <v>855</v>
+      </c>
+      <c r="E2" s="40">
+        <v>925</v>
+      </c>
+      <c r="F2" s="40">
+        <v>955</v>
+      </c>
+      <c r="G2" s="40">
+        <v>1025</v>
+      </c>
+      <c r="H2" s="40">
+        <v>1055</v>
+      </c>
+      <c r="I2" s="40">
+        <v>1125</v>
+      </c>
+      <c r="J2" s="40">
+        <v>1155</v>
+      </c>
+      <c r="K2" s="40">
+        <v>1235</v>
+      </c>
+      <c r="L2" s="40">
+        <v>1310</v>
+      </c>
+      <c r="M2" s="40">
+        <v>1340</v>
+      </c>
+      <c r="N2" s="40">
+        <v>1410</v>
+      </c>
+      <c r="O2" s="40">
+        <v>1440</v>
+      </c>
+      <c r="P2" s="40">
+        <v>1510</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>1540</v>
+      </c>
+      <c r="R2" s="40">
+        <v>1610</v>
+      </c>
+      <c r="S2" s="40">
+        <v>1640</v>
+      </c>
+      <c r="T2" s="40">
+        <v>1710</v>
+      </c>
+      <c r="U2" s="40">
+        <v>1740</v>
+      </c>
+      <c r="V2" s="40">
+        <v>1810</v>
+      </c>
+      <c r="W2" s="40">
+        <v>1910</v>
+      </c>
+      <c r="X2" s="40">
+        <v>2010</v>
+      </c>
+      <c r="Y2" s="40">
+        <v>2110</v>
+      </c>
+      <c r="Z2" s="40">
+        <v>2150</v>
+      </c>
+      <c r="AA2" s="40">
+        <v>2250</v>
+      </c>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="40">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="40">
+        <v>808</v>
+      </c>
+      <c r="C3" s="40">
+        <v>838</v>
+      </c>
+      <c r="D3" s="40">
+        <v>908</v>
+      </c>
+      <c r="E3" s="40">
+        <v>938</v>
+      </c>
+      <c r="F3" s="40">
+        <v>1008</v>
+      </c>
+      <c r="G3" s="40">
+        <v>1038</v>
+      </c>
+      <c r="H3" s="40">
+        <v>1108</v>
+      </c>
+      <c r="I3" s="40">
+        <v>1138</v>
+      </c>
+      <c r="J3" s="40">
+        <v>1208</v>
+      </c>
+      <c r="K3" s="40">
+        <v>1248</v>
+      </c>
+      <c r="L3" s="40">
+        <v>1323</v>
+      </c>
+      <c r="M3" s="40">
+        <v>1353</v>
+      </c>
+      <c r="N3" s="40">
+        <v>1423</v>
+      </c>
+      <c r="O3" s="40">
+        <v>1453</v>
+      </c>
+      <c r="P3" s="40">
+        <v>1523</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>1553</v>
+      </c>
+      <c r="R3" s="40">
+        <v>1623</v>
+      </c>
+      <c r="S3" s="40">
+        <v>1653</v>
+      </c>
+      <c r="T3" s="40">
+        <v>1723</v>
+      </c>
+      <c r="U3" s="40">
+        <v>1753</v>
+      </c>
+      <c r="V3" s="40">
+        <v>1820</v>
+      </c>
+      <c r="W3" s="40">
+        <v>1920</v>
+      </c>
+      <c r="X3" s="40">
+        <v>2020</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>2120</v>
+      </c>
+      <c r="Z3" s="40">
+        <v>2200</v>
+      </c>
+      <c r="AA3" s="40">
+        <v>2300</v>
+      </c>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="40">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="40">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="40">
+        <v>103</v>
+      </c>
+      <c r="AD4" s="40">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="40">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="40">
+        <v>107</v>
+      </c>
+      <c r="AD5" s="40">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="40">
+        <v>817</v>
+      </c>
+      <c r="C6" s="40">
+        <v>847</v>
+      </c>
+      <c r="D6" s="40">
+        <v>917</v>
+      </c>
+      <c r="E6" s="40">
+        <v>947</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1017</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1047</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1117</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1147</v>
+      </c>
+      <c r="J6" s="40">
+        <v>1217</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1257</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1332</v>
+      </c>
+      <c r="M6" s="40">
+        <v>1402</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1432</v>
+      </c>
+      <c r="O6" s="40">
+        <v>1502</v>
+      </c>
+      <c r="P6" s="40">
+        <v>1532</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>1602</v>
+      </c>
+      <c r="R6" s="40">
+        <v>1632</v>
+      </c>
+      <c r="S6" s="40">
+        <v>1702</v>
+      </c>
+      <c r="T6" s="40">
+        <v>1732</v>
+      </c>
+      <c r="U6" s="40">
+        <v>1802</v>
+      </c>
+      <c r="V6" s="40">
+        <v>1827</v>
+      </c>
+      <c r="W6" s="40">
+        <v>1927</v>
+      </c>
+      <c r="X6" s="40">
+        <v>2027</v>
+      </c>
+      <c r="Y6" s="40">
+        <v>2127</v>
+      </c>
+      <c r="Z6" s="40">
+        <v>2207</v>
+      </c>
+      <c r="AA6" s="40">
+        <v>2307</v>
+      </c>
+      <c r="AB6" s="40">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="40">
+        <v>107</v>
+      </c>
+      <c r="AD6" s="40">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="40">
+        <v>827</v>
+      </c>
+      <c r="C7" s="40">
+        <v>857</v>
+      </c>
+      <c r="D7" s="40">
+        <v>927</v>
+      </c>
+      <c r="E7" s="40">
+        <v>957</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1027</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1057</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1127</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1157</v>
+      </c>
+      <c r="J7" s="40">
+        <v>1227</v>
+      </c>
+      <c r="K7" s="40">
+        <v>1307</v>
+      </c>
+      <c r="L7" s="40">
+        <v>1342</v>
+      </c>
+      <c r="M7" s="40">
+        <v>1412</v>
+      </c>
+      <c r="N7" s="40">
+        <v>1442</v>
+      </c>
+      <c r="O7" s="40">
+        <v>1512</v>
+      </c>
+      <c r="P7" s="40">
+        <v>1542</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>1612</v>
+      </c>
+      <c r="R7" s="40">
+        <v>1642</v>
+      </c>
+      <c r="S7" s="40">
+        <v>1712</v>
+      </c>
+      <c r="T7" s="40">
+        <v>1742</v>
+      </c>
+      <c r="U7" s="40">
+        <v>1812</v>
+      </c>
+      <c r="V7" s="40">
+        <v>1835</v>
+      </c>
+      <c r="W7" s="40">
+        <v>1935</v>
+      </c>
+      <c r="X7" s="40">
+        <v>2035</v>
+      </c>
+      <c r="Y7" s="40">
+        <v>2135</v>
+      </c>
+      <c r="Z7" s="40">
+        <v>2215</v>
+      </c>
+      <c r="AA7" s="40">
+        <v>2315</v>
+      </c>
+      <c r="AB7" s="40">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="40">
+        <v>115</v>
+      </c>
+      <c r="AD7" s="40">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40">
+        <v>833</v>
+      </c>
+      <c r="C8" s="40">
+        <v>903</v>
+      </c>
+      <c r="D8" s="40">
+        <v>933</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1003</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1033</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1103</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1133</v>
+      </c>
+      <c r="I8" s="40">
+        <v>1203</v>
+      </c>
+      <c r="J8" s="40">
+        <v>1233</v>
+      </c>
+      <c r="K8" s="40">
+        <v>1313</v>
+      </c>
+      <c r="L8" s="40">
+        <v>1348</v>
+      </c>
+      <c r="M8" s="40">
+        <v>1418</v>
+      </c>
+      <c r="N8" s="40">
+        <v>1448</v>
+      </c>
+      <c r="O8" s="40">
+        <v>1518</v>
+      </c>
+      <c r="P8" s="40">
+        <v>1548</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>1618</v>
+      </c>
+      <c r="R8" s="40">
+        <v>1648</v>
+      </c>
+      <c r="S8" s="40">
+        <v>1718</v>
+      </c>
+      <c r="T8" s="40">
+        <v>1748</v>
+      </c>
+      <c r="U8" s="40">
+        <v>1818</v>
+      </c>
+      <c r="V8" s="40">
+        <v>1840</v>
+      </c>
+      <c r="W8" s="40">
+        <v>1940</v>
+      </c>
+      <c r="X8" s="40">
+        <v>2040</v>
+      </c>
+      <c r="Y8" s="40">
+        <v>2140</v>
+      </c>
+      <c r="Z8" s="40">
+        <v>2220</v>
+      </c>
+      <c r="AA8" s="40">
+        <v>2320</v>
+      </c>
+      <c r="AB8" s="40">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="40">
+        <v>120</v>
+      </c>
+      <c r="AD8" s="40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="40">
+        <v>838</v>
+      </c>
+      <c r="C9" s="40">
+        <v>908</v>
+      </c>
+      <c r="D9" s="40">
+        <v>938</v>
+      </c>
+      <c r="E9" s="40">
+        <v>1008</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1038</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1108</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1138</v>
+      </c>
+      <c r="I9" s="40">
+        <v>1208</v>
+      </c>
+      <c r="J9" s="40">
+        <v>1238</v>
+      </c>
+      <c r="K9" s="40">
+        <v>1318</v>
+      </c>
+      <c r="L9" s="40">
+        <v>1353</v>
+      </c>
+      <c r="M9" s="40">
+        <v>1423</v>
+      </c>
+      <c r="N9" s="40">
+        <v>1453</v>
+      </c>
+      <c r="O9" s="40">
+        <v>1523</v>
+      </c>
+      <c r="P9" s="40">
+        <v>1553</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>1623</v>
+      </c>
+      <c r="R9" s="40">
+        <v>1653</v>
+      </c>
+      <c r="S9" s="40">
+        <v>1723</v>
+      </c>
+      <c r="T9" s="40">
+        <v>1753</v>
+      </c>
+      <c r="U9" s="40">
+        <v>1823</v>
+      </c>
+      <c r="V9" s="40">
+        <v>1843</v>
+      </c>
+      <c r="W9" s="40">
+        <v>1943</v>
+      </c>
+      <c r="X9" s="40">
+        <v>2043</v>
+      </c>
+      <c r="Y9" s="40">
+        <v>2143</v>
+      </c>
+      <c r="Z9" s="40">
+        <v>2223</v>
+      </c>
+      <c r="AA9" s="40">
+        <v>2323</v>
+      </c>
+      <c r="AB9" s="40">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="40">
+        <v>123</v>
+      </c>
+      <c r="AD9" s="40">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40">
+        <v>1013</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1043</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1113</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1143</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1213</v>
+      </c>
+      <c r="J10" s="40">
+        <v>1243</v>
+      </c>
+      <c r="K10" s="40">
+        <v>1323</v>
+      </c>
+      <c r="L10" s="40">
+        <v>1358</v>
+      </c>
+      <c r="M10" s="40">
+        <v>1428</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1458</v>
+      </c>
+      <c r="O10" s="40">
+        <v>1528</v>
+      </c>
+      <c r="P10" s="40">
+        <v>1558</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>1628</v>
+      </c>
+      <c r="R10" s="40">
+        <v>1658</v>
+      </c>
+      <c r="S10" s="40">
+        <v>1728</v>
+      </c>
+      <c r="T10" s="40">
+        <v>1758</v>
+      </c>
+      <c r="U10" s="40">
+        <v>1828</v>
+      </c>
+      <c r="V10" s="40">
+        <v>1849</v>
+      </c>
+      <c r="W10" s="40">
+        <v>1949</v>
+      </c>
+      <c r="X10" s="40">
+        <v>2049</v>
+      </c>
+      <c r="Y10" s="40">
+        <v>2149</v>
+      </c>
+      <c r="Z10" s="40">
+        <v>2229</v>
+      </c>
+      <c r="AA10" s="40">
+        <v>2329</v>
+      </c>
+      <c r="AB10" s="40">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="40">
+        <v>129</v>
+      </c>
+      <c r="AD10" s="40">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="40">
+        <v>848</v>
+      </c>
+      <c r="C11" s="40">
+        <v>918</v>
+      </c>
+      <c r="D11" s="40">
+        <v>948</v>
+      </c>
+      <c r="E11" s="40">
+        <v>1018</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1048</v>
+      </c>
+      <c r="G11" s="40">
+        <v>1118</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1148</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1218</v>
+      </c>
+      <c r="J11" s="40">
+        <v>1248</v>
+      </c>
+      <c r="K11" s="40">
+        <v>1328</v>
+      </c>
+      <c r="L11" s="40">
+        <v>1403</v>
+      </c>
+      <c r="M11" s="40">
+        <v>1433</v>
+      </c>
+      <c r="N11" s="40">
+        <v>1503</v>
+      </c>
+      <c r="O11" s="40">
+        <v>1533</v>
+      </c>
+      <c r="P11" s="40">
+        <v>1603</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>1633</v>
+      </c>
+      <c r="R11" s="40">
+        <v>1703</v>
+      </c>
+      <c r="S11" s="40">
+        <v>1733</v>
+      </c>
+      <c r="T11" s="40">
+        <v>1803</v>
+      </c>
+      <c r="U11" s="40">
+        <v>1833</v>
+      </c>
+      <c r="V11" s="40">
+        <v>1853</v>
+      </c>
+      <c r="W11" s="40">
+        <v>1953</v>
+      </c>
+      <c r="X11" s="40">
+        <v>2053</v>
+      </c>
+      <c r="Y11" s="40">
+        <v>2153</v>
+      </c>
+      <c r="Z11" s="40">
+        <v>2233</v>
+      </c>
+      <c r="AA11" s="40">
+        <v>2333</v>
+      </c>
+      <c r="AB11" s="40">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="40">
+        <v>133</v>
+      </c>
+      <c r="AD11" s="40">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="75">
+        <v>755</v>
+      </c>
+      <c r="C2" s="75">
+        <v>855</v>
+      </c>
+      <c r="D2" s="75">
+        <v>955</v>
+      </c>
+      <c r="E2" s="75">
+        <v>1055</v>
+      </c>
+      <c r="F2" s="75">
+        <v>1155</v>
+      </c>
+      <c r="G2" s="75">
+        <v>1310</v>
+      </c>
+      <c r="H2" s="75">
+        <v>1410</v>
+      </c>
+      <c r="I2" s="75">
+        <v>1510</v>
+      </c>
+      <c r="J2" s="75">
+        <v>1610</v>
+      </c>
+      <c r="K2" s="75">
+        <v>1710</v>
+      </c>
+      <c r="L2" s="75">
+        <v>1810</v>
+      </c>
+      <c r="M2" s="75">
+        <v>1905</v>
+      </c>
+      <c r="N2" s="75">
+        <v>2005</v>
+      </c>
+      <c r="O2" s="75">
+        <v>2105</v>
+      </c>
+      <c r="P2" s="75">
+        <v>2205</v>
+      </c>
+      <c r="Q2" s="75">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="75">
+        <v>759</v>
+      </c>
+      <c r="C3" s="75">
+        <v>859</v>
+      </c>
+      <c r="D3" s="75">
+        <v>959</v>
+      </c>
+      <c r="E3" s="75">
+        <v>1059</v>
+      </c>
+      <c r="F3" s="75">
+        <v>1159</v>
+      </c>
+      <c r="G3" s="75">
+        <v>1314</v>
+      </c>
+      <c r="H3" s="75">
+        <v>1414</v>
+      </c>
+      <c r="I3" s="75">
+        <v>1514</v>
+      </c>
+      <c r="J3" s="75">
+        <v>1614</v>
+      </c>
+      <c r="K3" s="75">
+        <v>1714</v>
+      </c>
+      <c r="L3" s="75">
+        <v>1813</v>
+      </c>
+      <c r="M3" s="75">
+        <v>1908</v>
+      </c>
+      <c r="N3" s="75">
+        <v>2008</v>
+      </c>
+      <c r="O3" s="75">
+        <v>2108</v>
+      </c>
+      <c r="P3" s="75">
+        <v>2208</v>
+      </c>
+      <c r="Q3" s="75">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="75">
+        <v>804</v>
+      </c>
+      <c r="C4" s="75">
+        <v>904</v>
+      </c>
+      <c r="D4" s="75">
+        <v>1004</v>
+      </c>
+      <c r="E4" s="75">
+        <v>1104</v>
+      </c>
+      <c r="F4" s="75">
+        <v>1204</v>
+      </c>
+      <c r="G4" s="75">
+        <v>1319</v>
+      </c>
+      <c r="H4" s="75">
+        <v>1419</v>
+      </c>
+      <c r="I4" s="75">
+        <v>1519</v>
+      </c>
+      <c r="J4" s="75">
+        <v>1619</v>
+      </c>
+      <c r="K4" s="75">
+        <v>1719</v>
+      </c>
+      <c r="L4" s="75">
+        <v>1818</v>
+      </c>
+      <c r="M4" s="75">
+        <v>1913</v>
+      </c>
+      <c r="N4" s="75">
+        <v>2013</v>
+      </c>
+      <c r="O4" s="75">
+        <v>2113</v>
+      </c>
+      <c r="P4" s="75">
+        <v>2213</v>
+      </c>
+      <c r="Q4" s="75">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="75">
+        <v>811</v>
+      </c>
+      <c r="C5" s="75">
+        <v>911</v>
+      </c>
+      <c r="D5" s="75">
+        <v>1011</v>
+      </c>
+      <c r="E5" s="75">
+        <v>1111</v>
+      </c>
+      <c r="F5" s="75">
+        <v>1211</v>
+      </c>
+      <c r="G5" s="75">
+        <v>1326</v>
+      </c>
+      <c r="H5" s="75">
+        <v>1426</v>
+      </c>
+      <c r="I5" s="75">
+        <v>1526</v>
+      </c>
+      <c r="J5" s="75">
+        <v>1626</v>
+      </c>
+      <c r="K5" s="75">
+        <v>1726</v>
+      </c>
+      <c r="L5" s="75">
+        <v>1825</v>
+      </c>
+      <c r="M5" s="75">
+        <v>1919</v>
+      </c>
+      <c r="N5" s="75">
+        <v>2019</v>
+      </c>
+      <c r="O5" s="75">
+        <v>2119</v>
+      </c>
+      <c r="P5" s="75">
+        <v>2219</v>
+      </c>
+      <c r="Q5" s="75">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="75">
+        <v>818</v>
+      </c>
+      <c r="C6" s="75">
+        <v>918</v>
+      </c>
+      <c r="D6" s="75">
+        <v>1018</v>
+      </c>
+      <c r="E6" s="75">
+        <v>1118</v>
+      </c>
+      <c r="F6" s="75">
+        <v>1218</v>
+      </c>
+      <c r="G6" s="75">
+        <v>1333</v>
+      </c>
+      <c r="H6" s="75">
+        <v>1433</v>
+      </c>
+      <c r="I6" s="75">
+        <v>1533</v>
+      </c>
+      <c r="J6" s="75">
+        <v>1633</v>
+      </c>
+      <c r="K6" s="75">
+        <v>1733</v>
+      </c>
+      <c r="L6" s="75">
+        <v>1830</v>
+      </c>
+      <c r="M6" s="75">
+        <v>1924</v>
+      </c>
+      <c r="N6" s="75">
+        <v>2024</v>
+      </c>
+      <c r="O6" s="75">
+        <v>2124</v>
+      </c>
+      <c r="P6" s="75">
+        <v>2224</v>
+      </c>
+      <c r="Q6" s="75">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="75">
+        <v>825</v>
+      </c>
+      <c r="C7" s="75">
+        <v>925</v>
+      </c>
+      <c r="D7" s="75">
+        <v>1025</v>
+      </c>
+      <c r="E7" s="75">
+        <v>1125</v>
+      </c>
+      <c r="F7" s="75">
+        <v>1225</v>
+      </c>
+      <c r="G7" s="75">
+        <v>1340</v>
+      </c>
+      <c r="H7" s="75">
+        <v>1440</v>
+      </c>
+      <c r="I7" s="75">
+        <v>1540</v>
+      </c>
+      <c r="J7" s="75">
+        <v>1640</v>
+      </c>
+      <c r="K7" s="75">
+        <v>1740</v>
+      </c>
+      <c r="L7" s="75">
+        <v>1837</v>
+      </c>
+      <c r="M7" s="75">
+        <v>1931</v>
+      </c>
+      <c r="N7" s="75">
+        <v>2031</v>
+      </c>
+      <c r="O7" s="75">
+        <v>2131</v>
+      </c>
+      <c r="P7" s="75">
+        <v>2231</v>
+      </c>
+      <c r="Q7" s="75">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="75">
+        <v>827</v>
+      </c>
+      <c r="C8" s="75">
+        <v>927</v>
+      </c>
+      <c r="D8" s="75">
+        <v>1027</v>
+      </c>
+      <c r="E8" s="75">
+        <v>1127</v>
+      </c>
+      <c r="F8" s="75">
+        <v>1227</v>
+      </c>
+      <c r="G8" s="75">
+        <v>1342</v>
+      </c>
+      <c r="H8" s="75">
+        <v>1442</v>
+      </c>
+      <c r="I8" s="75">
+        <v>1542</v>
+      </c>
+      <c r="J8" s="75">
+        <v>1642</v>
+      </c>
+      <c r="K8" s="75">
+        <v>1742</v>
+      </c>
+      <c r="L8" s="75">
+        <v>1838</v>
+      </c>
+      <c r="M8" s="75">
+        <v>1932</v>
+      </c>
+      <c r="N8" s="75">
+        <v>2032</v>
+      </c>
+      <c r="O8" s="75">
+        <v>2132</v>
+      </c>
+      <c r="P8" s="75">
+        <v>2232</v>
+      </c>
+      <c r="Q8" s="75">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="75">
+        <v>833</v>
+      </c>
+      <c r="C9" s="75">
+        <v>933</v>
+      </c>
+      <c r="D9" s="75">
+        <v>1033</v>
+      </c>
+      <c r="E9" s="75">
+        <v>1133</v>
+      </c>
+      <c r="F9" s="75">
+        <v>1233</v>
+      </c>
+      <c r="G9" s="75">
+        <v>1348</v>
+      </c>
+      <c r="H9" s="75">
+        <v>1448</v>
+      </c>
+      <c r="I9" s="75">
+        <v>1548</v>
+      </c>
+      <c r="J9" s="75">
+        <v>1648</v>
+      </c>
+      <c r="K9" s="75">
+        <v>1748</v>
+      </c>
+      <c r="L9" s="75">
+        <v>1843</v>
+      </c>
+      <c r="M9" s="75">
+        <v>1936</v>
+      </c>
+      <c r="N9" s="75">
+        <v>2036</v>
+      </c>
+      <c r="O9" s="75">
+        <v>2136</v>
+      </c>
+      <c r="P9" s="75">
+        <v>2236</v>
+      </c>
+      <c r="Q9" s="75">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="75">
+        <v>837</v>
+      </c>
+      <c r="C10" s="75">
+        <v>937</v>
+      </c>
+      <c r="D10" s="75">
+        <v>1037</v>
+      </c>
+      <c r="E10" s="75">
+        <v>1137</v>
+      </c>
+      <c r="F10" s="75">
+        <v>1237</v>
+      </c>
+      <c r="G10" s="75">
+        <v>1352</v>
+      </c>
+      <c r="H10" s="75">
+        <v>1452</v>
+      </c>
+      <c r="I10" s="75">
+        <v>1552</v>
+      </c>
+      <c r="J10" s="75">
+        <v>1652</v>
+      </c>
+      <c r="K10" s="75">
+        <v>1752</v>
+      </c>
+      <c r="L10" s="75">
+        <v>1846</v>
+      </c>
+      <c r="M10" s="75">
+        <v>1939</v>
+      </c>
+      <c r="N10" s="75">
+        <v>2039</v>
+      </c>
+      <c r="O10" s="75">
+        <v>2139</v>
+      </c>
+      <c r="P10" s="75">
+        <v>2239</v>
+      </c>
+      <c r="Q10" s="75">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="75">
+        <v>848</v>
+      </c>
+      <c r="C11" s="75">
+        <v>948</v>
+      </c>
+      <c r="D11" s="75">
+        <v>1048</v>
+      </c>
+      <c r="E11" s="75">
+        <v>1148</v>
+      </c>
+      <c r="F11" s="75">
+        <v>1248</v>
+      </c>
+      <c r="G11" s="75">
+        <v>1403</v>
+      </c>
+      <c r="H11" s="75">
+        <v>1503</v>
+      </c>
+      <c r="I11" s="75">
+        <v>1603</v>
+      </c>
+      <c r="J11" s="75">
+        <v>1703</v>
+      </c>
+      <c r="K11" s="75">
+        <v>1803</v>
+      </c>
+      <c r="L11" s="75">
+        <v>1853</v>
+      </c>
+      <c r="M11" s="75">
+        <v>1946</v>
+      </c>
+      <c r="N11" s="75">
+        <v>2046</v>
+      </c>
+      <c r="O11" s="75">
+        <v>2146</v>
+      </c>
+      <c r="P11" s="75">
+        <v>2246</v>
+      </c>
+      <c r="Q11" s="75">
+        <v>2316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="79">
+        <v>755</v>
+      </c>
+      <c r="C2" s="79">
+        <v>855</v>
+      </c>
+      <c r="D2" s="79">
+        <v>955</v>
+      </c>
+      <c r="E2" s="79">
+        <v>1055</v>
+      </c>
+      <c r="F2" s="79">
+        <v>1155</v>
+      </c>
+      <c r="G2" s="79">
+        <v>1310</v>
+      </c>
+      <c r="H2" s="79">
+        <v>1410</v>
+      </c>
+      <c r="I2" s="79">
+        <v>1510</v>
+      </c>
+      <c r="J2" s="79">
+        <v>1610</v>
+      </c>
+      <c r="K2" s="79">
+        <v>1710</v>
+      </c>
+      <c r="L2" s="79">
+        <v>1810</v>
+      </c>
+      <c r="M2" s="79">
+        <v>1910</v>
+      </c>
+      <c r="N2" s="79">
+        <v>2010</v>
+      </c>
+      <c r="O2" s="79">
+        <v>2110</v>
+      </c>
+      <c r="P2" s="79">
+        <v>2150</v>
+      </c>
+      <c r="Q2" s="79">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="79">
+        <v>808</v>
+      </c>
+      <c r="C3" s="79">
+        <v>908</v>
+      </c>
+      <c r="D3" s="79">
+        <v>1008</v>
+      </c>
+      <c r="E3" s="79">
+        <v>1108</v>
+      </c>
+      <c r="F3" s="79">
+        <v>1208</v>
+      </c>
+      <c r="G3" s="79">
+        <v>1323</v>
+      </c>
+      <c r="H3" s="79">
+        <v>1423</v>
+      </c>
+      <c r="I3" s="79">
+        <v>1523</v>
+      </c>
+      <c r="J3" s="79">
+        <v>1623</v>
+      </c>
+      <c r="K3" s="79">
+        <v>1723</v>
+      </c>
+      <c r="L3" s="79">
+        <v>1820</v>
+      </c>
+      <c r="M3" s="79">
+        <v>1920</v>
+      </c>
+      <c r="N3" s="79">
+        <v>2020</v>
+      </c>
+      <c r="O3" s="79">
+        <v>2120</v>
+      </c>
+      <c r="P3" s="79">
+        <v>2200</v>
+      </c>
+      <c r="Q3" s="79">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="79">
+        <v>817</v>
+      </c>
+      <c r="C4" s="79">
+        <v>917</v>
+      </c>
+      <c r="D4" s="79">
+        <v>1017</v>
+      </c>
+      <c r="E4" s="79">
+        <v>1117</v>
+      </c>
+      <c r="F4" s="79">
+        <v>1217</v>
+      </c>
+      <c r="G4" s="79">
+        <v>1332</v>
+      </c>
+      <c r="H4" s="79">
+        <v>1432</v>
+      </c>
+      <c r="I4" s="79">
+        <v>1532</v>
+      </c>
+      <c r="J4" s="79">
+        <v>1632</v>
+      </c>
+      <c r="K4" s="79">
+        <v>1732</v>
+      </c>
+      <c r="L4" s="79">
+        <v>1827</v>
+      </c>
+      <c r="M4" s="79">
+        <v>1927</v>
+      </c>
+      <c r="N4" s="79">
+        <v>2027</v>
+      </c>
+      <c r="O4" s="79">
+        <v>2127</v>
+      </c>
+      <c r="P4" s="79">
+        <v>2207</v>
+      </c>
+      <c r="Q4" s="79">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="79">
+        <v>827</v>
+      </c>
+      <c r="C5" s="79">
+        <v>927</v>
+      </c>
+      <c r="D5" s="79">
+        <v>1027</v>
+      </c>
+      <c r="E5" s="79">
+        <v>1127</v>
+      </c>
+      <c r="F5" s="79">
+        <v>1227</v>
+      </c>
+      <c r="G5" s="79">
+        <v>1342</v>
+      </c>
+      <c r="H5" s="79">
+        <v>1442</v>
+      </c>
+      <c r="I5" s="79">
+        <v>1542</v>
+      </c>
+      <c r="J5" s="79">
+        <v>1642</v>
+      </c>
+      <c r="K5" s="79">
+        <v>1742</v>
+      </c>
+      <c r="L5" s="79">
+        <v>1835</v>
+      </c>
+      <c r="M5" s="79">
+        <v>1935</v>
+      </c>
+      <c r="N5" s="79">
+        <v>2035</v>
+      </c>
+      <c r="O5" s="79">
+        <v>2135</v>
+      </c>
+      <c r="P5" s="79">
+        <v>2215</v>
+      </c>
+      <c r="Q5" s="79">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="79">
+        <v>833</v>
+      </c>
+      <c r="C6" s="79">
+        <v>933</v>
+      </c>
+      <c r="D6" s="79">
+        <v>1033</v>
+      </c>
+      <c r="E6" s="79">
+        <v>1133</v>
+      </c>
+      <c r="F6" s="79">
+        <v>1233</v>
+      </c>
+      <c r="G6" s="79">
+        <v>1348</v>
+      </c>
+      <c r="H6" s="79">
+        <v>1448</v>
+      </c>
+      <c r="I6" s="79">
+        <v>1548</v>
+      </c>
+      <c r="J6" s="79">
+        <v>1648</v>
+      </c>
+      <c r="K6" s="79">
+        <v>1748</v>
+      </c>
+      <c r="L6" s="79">
+        <v>1840</v>
+      </c>
+      <c r="M6" s="79">
+        <v>1940</v>
+      </c>
+      <c r="N6" s="79">
+        <v>2040</v>
+      </c>
+      <c r="O6" s="79">
+        <v>2140</v>
+      </c>
+      <c r="P6" s="79">
+        <v>2220</v>
+      </c>
+      <c r="Q6" s="79">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="79">
+        <v>838</v>
+      </c>
+      <c r="C7" s="79">
+        <v>938</v>
+      </c>
+      <c r="D7" s="79">
+        <v>1038</v>
+      </c>
+      <c r="E7" s="79">
+        <v>1138</v>
+      </c>
+      <c r="F7" s="79">
+        <v>1238</v>
+      </c>
+      <c r="G7" s="79">
+        <v>1353</v>
+      </c>
+      <c r="H7" s="79">
+        <v>1453</v>
+      </c>
+      <c r="I7" s="79">
+        <v>1553</v>
+      </c>
+      <c r="J7" s="79">
+        <v>1653</v>
+      </c>
+      <c r="K7" s="79">
+        <v>1753</v>
+      </c>
+      <c r="L7" s="79">
+        <v>1843</v>
+      </c>
+      <c r="M7" s="79">
+        <v>1943</v>
+      </c>
+      <c r="N7" s="79">
+        <v>2043</v>
+      </c>
+      <c r="O7" s="79">
+        <v>2143</v>
+      </c>
+      <c r="P7" s="79">
+        <v>2223</v>
+      </c>
+      <c r="Q7" s="79">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="79">
+        <v>1043</v>
+      </c>
+      <c r="E8" s="79">
+        <v>1143</v>
+      </c>
+      <c r="F8" s="79">
+        <v>1243</v>
+      </c>
+      <c r="G8" s="79">
+        <v>1358</v>
+      </c>
+      <c r="H8" s="79">
+        <v>1458</v>
+      </c>
+      <c r="I8" s="79">
+        <v>1558</v>
+      </c>
+      <c r="J8" s="79">
+        <v>1658</v>
+      </c>
+      <c r="K8" s="79">
+        <v>1758</v>
+      </c>
+      <c r="L8" s="79">
+        <v>1849</v>
+      </c>
+      <c r="M8" s="79">
+        <v>1949</v>
+      </c>
+      <c r="N8" s="79">
+        <v>2049</v>
+      </c>
+      <c r="O8" s="79">
+        <v>2149</v>
+      </c>
+      <c r="P8" s="79">
+        <v>2229</v>
+      </c>
+      <c r="Q8" s="79">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="79">
+        <v>848</v>
+      </c>
+      <c r="C9" s="79">
+        <v>948</v>
+      </c>
+      <c r="D9" s="79">
+        <v>1048</v>
+      </c>
+      <c r="E9" s="79">
+        <v>1148</v>
+      </c>
+      <c r="F9" s="79">
+        <v>1248</v>
+      </c>
+      <c r="G9" s="79">
+        <v>1403</v>
+      </c>
+      <c r="H9" s="79">
+        <v>1503</v>
+      </c>
+      <c r="I9" s="79">
+        <v>1603</v>
+      </c>
+      <c r="J9" s="79">
+        <v>1703</v>
+      </c>
+      <c r="K9" s="79">
+        <v>1803</v>
+      </c>
+      <c r="L9" s="79">
+        <v>1853</v>
+      </c>
+      <c r="M9" s="79">
+        <v>1953</v>
+      </c>
+      <c r="N9" s="79">
+        <v>2053</v>
+      </c>
+      <c r="O9" s="79">
+        <v>2153</v>
+      </c>
+      <c r="P9" s="79">
+        <v>2233</v>
+      </c>
+      <c r="Q9" s="79">
+        <v>2333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="BQ14" sqref="BQ14"/>
     </sheetView>
   </sheetViews>
@@ -6130,7 +8163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
@@ -9326,4 +11359,3010 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69">
+        <v>645</v>
+      </c>
+      <c r="D2" s="69">
+        <v>715</v>
+      </c>
+      <c r="E2" s="69">
+        <v>745</v>
+      </c>
+      <c r="F2" s="69">
+        <v>820</v>
+      </c>
+      <c r="G2" s="69">
+        <v>850</v>
+      </c>
+      <c r="H2" s="70">
+        <v>925</v>
+      </c>
+      <c r="I2" s="70">
+        <v>955</v>
+      </c>
+      <c r="J2" s="70">
+        <v>1025</v>
+      </c>
+      <c r="K2" s="70">
+        <v>1055</v>
+      </c>
+      <c r="L2" s="70">
+        <v>1125</v>
+      </c>
+      <c r="M2" s="70">
+        <v>1155</v>
+      </c>
+      <c r="N2" s="70">
+        <v>1235</v>
+      </c>
+      <c r="O2" s="70">
+        <v>1310</v>
+      </c>
+      <c r="P2" s="70">
+        <v>1340</v>
+      </c>
+      <c r="Q2" s="70">
+        <v>1410</v>
+      </c>
+      <c r="R2" s="70">
+        <v>1440</v>
+      </c>
+      <c r="S2" s="70">
+        <v>1510</v>
+      </c>
+      <c r="T2" s="70">
+        <v>1540</v>
+      </c>
+      <c r="U2" s="70">
+        <v>1610</v>
+      </c>
+      <c r="V2" s="70">
+        <v>1640</v>
+      </c>
+      <c r="W2" s="70">
+        <v>1710</v>
+      </c>
+      <c r="X2" s="70">
+        <v>1740</v>
+      </c>
+      <c r="Y2" s="70">
+        <v>1810</v>
+      </c>
+      <c r="Z2" s="70">
+        <v>1905</v>
+      </c>
+      <c r="AA2" s="70">
+        <v>2005</v>
+      </c>
+      <c r="AB2" s="70">
+        <v>2105</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>2205</v>
+      </c>
+      <c r="AD2" s="70">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69">
+        <v>649</v>
+      </c>
+      <c r="D3" s="69">
+        <v>719</v>
+      </c>
+      <c r="E3" s="69">
+        <v>749</v>
+      </c>
+      <c r="F3" s="69">
+        <v>824</v>
+      </c>
+      <c r="G3" s="69">
+        <v>854</v>
+      </c>
+      <c r="H3" s="70">
+        <v>929</v>
+      </c>
+      <c r="I3" s="70">
+        <v>959</v>
+      </c>
+      <c r="J3" s="70">
+        <v>1029</v>
+      </c>
+      <c r="K3" s="70">
+        <v>1059</v>
+      </c>
+      <c r="L3" s="70">
+        <v>1129</v>
+      </c>
+      <c r="M3" s="70">
+        <v>1159</v>
+      </c>
+      <c r="N3" s="70">
+        <v>1239</v>
+      </c>
+      <c r="O3" s="70">
+        <v>1314</v>
+      </c>
+      <c r="P3" s="70">
+        <v>1344</v>
+      </c>
+      <c r="Q3" s="70">
+        <v>1414</v>
+      </c>
+      <c r="R3" s="70">
+        <v>1444</v>
+      </c>
+      <c r="S3" s="70">
+        <v>1514</v>
+      </c>
+      <c r="T3" s="70">
+        <v>1544</v>
+      </c>
+      <c r="U3" s="70">
+        <v>1614</v>
+      </c>
+      <c r="V3" s="70">
+        <v>1644</v>
+      </c>
+      <c r="W3" s="70">
+        <v>1714</v>
+      </c>
+      <c r="X3" s="70">
+        <v>1744</v>
+      </c>
+      <c r="Y3" s="70">
+        <v>1813</v>
+      </c>
+      <c r="Z3" s="70">
+        <v>1908</v>
+      </c>
+      <c r="AA3" s="70">
+        <v>2008</v>
+      </c>
+      <c r="AB3" s="70">
+        <v>2108</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>2208</v>
+      </c>
+      <c r="AD3" s="70">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69">
+        <v>655</v>
+      </c>
+      <c r="D4" s="69">
+        <v>725</v>
+      </c>
+      <c r="E4" s="69">
+        <v>755</v>
+      </c>
+      <c r="F4" s="69">
+        <v>830</v>
+      </c>
+      <c r="G4" s="69">
+        <v>900</v>
+      </c>
+      <c r="H4" s="70">
+        <v>935</v>
+      </c>
+      <c r="I4" s="70">
+        <v>1004</v>
+      </c>
+      <c r="J4" s="70">
+        <v>1034</v>
+      </c>
+      <c r="K4" s="70">
+        <v>1104</v>
+      </c>
+      <c r="L4" s="70">
+        <v>1134</v>
+      </c>
+      <c r="M4" s="70">
+        <v>1204</v>
+      </c>
+      <c r="N4" s="70">
+        <v>1244</v>
+      </c>
+      <c r="O4" s="70">
+        <v>1319</v>
+      </c>
+      <c r="P4" s="70">
+        <v>1349</v>
+      </c>
+      <c r="Q4" s="70">
+        <v>1419</v>
+      </c>
+      <c r="R4" s="70">
+        <v>1449</v>
+      </c>
+      <c r="S4" s="70">
+        <v>1520</v>
+      </c>
+      <c r="T4" s="70">
+        <v>1550</v>
+      </c>
+      <c r="U4" s="70">
+        <v>1620</v>
+      </c>
+      <c r="V4" s="70">
+        <v>1650</v>
+      </c>
+      <c r="W4" s="70">
+        <v>1720</v>
+      </c>
+      <c r="X4" s="70">
+        <v>1750</v>
+      </c>
+      <c r="Y4" s="70">
+        <v>1818</v>
+      </c>
+      <c r="Z4" s="70">
+        <v>1913</v>
+      </c>
+      <c r="AA4" s="70">
+        <v>2013</v>
+      </c>
+      <c r="AB4" s="70">
+        <v>2113</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>2213</v>
+      </c>
+      <c r="AD4" s="70">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69">
+        <v>703</v>
+      </c>
+      <c r="D5" s="69">
+        <v>733</v>
+      </c>
+      <c r="E5" s="69">
+        <v>803</v>
+      </c>
+      <c r="F5" s="69">
+        <v>838</v>
+      </c>
+      <c r="G5" s="69">
+        <v>908</v>
+      </c>
+      <c r="H5" s="70">
+        <v>943</v>
+      </c>
+      <c r="I5" s="70">
+        <v>1011</v>
+      </c>
+      <c r="J5" s="70">
+        <v>1041</v>
+      </c>
+      <c r="K5" s="70">
+        <v>1111</v>
+      </c>
+      <c r="L5" s="70">
+        <v>1141</v>
+      </c>
+      <c r="M5" s="70">
+        <v>1211</v>
+      </c>
+      <c r="N5" s="70">
+        <v>1251</v>
+      </c>
+      <c r="O5" s="70">
+        <v>1326</v>
+      </c>
+      <c r="P5" s="70">
+        <v>1356</v>
+      </c>
+      <c r="Q5" s="70">
+        <v>1426</v>
+      </c>
+      <c r="R5" s="70">
+        <v>1456</v>
+      </c>
+      <c r="S5" s="70">
+        <v>1528</v>
+      </c>
+      <c r="T5" s="70">
+        <v>1558</v>
+      </c>
+      <c r="U5" s="70">
+        <v>1628</v>
+      </c>
+      <c r="V5" s="70">
+        <v>1658</v>
+      </c>
+      <c r="W5" s="70">
+        <v>1728</v>
+      </c>
+      <c r="X5" s="70">
+        <v>1758</v>
+      </c>
+      <c r="Y5" s="70">
+        <v>1825</v>
+      </c>
+      <c r="Z5" s="70">
+        <v>1919</v>
+      </c>
+      <c r="AA5" s="70">
+        <v>2019</v>
+      </c>
+      <c r="AB5" s="70">
+        <v>2119</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>2219</v>
+      </c>
+      <c r="AD5" s="70">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="69">
+        <v>610</v>
+      </c>
+      <c r="C6" s="69">
+        <v>710</v>
+      </c>
+      <c r="D6" s="69">
+        <v>740</v>
+      </c>
+      <c r="E6" s="69">
+        <v>810</v>
+      </c>
+      <c r="F6" s="69">
+        <v>845</v>
+      </c>
+      <c r="G6" s="69">
+        <v>915</v>
+      </c>
+      <c r="H6" s="70">
+        <v>950</v>
+      </c>
+      <c r="I6" s="70">
+        <v>1018</v>
+      </c>
+      <c r="J6" s="70">
+        <v>1048</v>
+      </c>
+      <c r="K6" s="70">
+        <v>1118</v>
+      </c>
+      <c r="L6" s="70">
+        <v>1148</v>
+      </c>
+      <c r="M6" s="70">
+        <v>1218</v>
+      </c>
+      <c r="N6" s="70">
+        <v>1258</v>
+      </c>
+      <c r="O6" s="70">
+        <v>1333</v>
+      </c>
+      <c r="P6" s="70">
+        <v>1403</v>
+      </c>
+      <c r="Q6" s="70">
+        <v>1433</v>
+      </c>
+      <c r="R6" s="70">
+        <v>1503</v>
+      </c>
+      <c r="S6" s="70">
+        <v>1535</v>
+      </c>
+      <c r="T6" s="70">
+        <v>1605</v>
+      </c>
+      <c r="U6" s="70">
+        <v>1635</v>
+      </c>
+      <c r="V6" s="70">
+        <v>1705</v>
+      </c>
+      <c r="W6" s="70">
+        <v>1735</v>
+      </c>
+      <c r="X6" s="70">
+        <v>1805</v>
+      </c>
+      <c r="Y6" s="70">
+        <v>1830</v>
+      </c>
+      <c r="Z6" s="70">
+        <v>1924</v>
+      </c>
+      <c r="AA6" s="70">
+        <v>2024</v>
+      </c>
+      <c r="AB6" s="70">
+        <v>2124</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>2224</v>
+      </c>
+      <c r="AD6" s="70">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="69">
+        <v>617</v>
+      </c>
+      <c r="C7" s="69">
+        <v>717</v>
+      </c>
+      <c r="D7" s="69">
+        <v>747</v>
+      </c>
+      <c r="E7" s="69">
+        <v>817</v>
+      </c>
+      <c r="F7" s="69">
+        <v>852</v>
+      </c>
+      <c r="G7" s="69">
+        <v>922</v>
+      </c>
+      <c r="H7" s="70">
+        <v>957</v>
+      </c>
+      <c r="I7" s="70">
+        <v>1025</v>
+      </c>
+      <c r="J7" s="70">
+        <v>1055</v>
+      </c>
+      <c r="K7" s="70">
+        <v>1125</v>
+      </c>
+      <c r="L7" s="70">
+        <v>1155</v>
+      </c>
+      <c r="M7" s="70">
+        <v>1225</v>
+      </c>
+      <c r="N7" s="70">
+        <v>1305</v>
+      </c>
+      <c r="O7" s="70">
+        <v>1340</v>
+      </c>
+      <c r="P7" s="70">
+        <v>1410</v>
+      </c>
+      <c r="Q7" s="70">
+        <v>1440</v>
+      </c>
+      <c r="R7" s="70">
+        <v>1510</v>
+      </c>
+      <c r="S7" s="70">
+        <v>1542</v>
+      </c>
+      <c r="T7" s="70">
+        <v>1612</v>
+      </c>
+      <c r="U7" s="70">
+        <v>1642</v>
+      </c>
+      <c r="V7" s="70">
+        <v>1712</v>
+      </c>
+      <c r="W7" s="70">
+        <v>1742</v>
+      </c>
+      <c r="X7" s="70">
+        <v>1812</v>
+      </c>
+      <c r="Y7" s="70">
+        <v>1837</v>
+      </c>
+      <c r="Z7" s="70">
+        <v>1931</v>
+      </c>
+      <c r="AA7" s="70">
+        <v>2031</v>
+      </c>
+      <c r="AB7" s="70">
+        <v>2131</v>
+      </c>
+      <c r="AC7" s="70">
+        <v>2231</v>
+      </c>
+      <c r="AD7" s="70">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="69">
+        <v>619</v>
+      </c>
+      <c r="C8" s="69">
+        <v>719</v>
+      </c>
+      <c r="D8" s="69">
+        <v>749</v>
+      </c>
+      <c r="E8" s="69">
+        <v>819</v>
+      </c>
+      <c r="F8" s="69">
+        <v>854</v>
+      </c>
+      <c r="G8" s="69">
+        <v>924</v>
+      </c>
+      <c r="H8" s="70">
+        <v>959</v>
+      </c>
+      <c r="I8" s="70">
+        <v>1027</v>
+      </c>
+      <c r="J8" s="70">
+        <v>1057</v>
+      </c>
+      <c r="K8" s="70">
+        <v>1127</v>
+      </c>
+      <c r="L8" s="70">
+        <v>1157</v>
+      </c>
+      <c r="M8" s="70">
+        <v>1227</v>
+      </c>
+      <c r="N8" s="70">
+        <v>1307</v>
+      </c>
+      <c r="O8" s="70">
+        <v>1342</v>
+      </c>
+      <c r="P8" s="70">
+        <v>1412</v>
+      </c>
+      <c r="Q8" s="70">
+        <v>1442</v>
+      </c>
+      <c r="R8" s="70">
+        <v>1512</v>
+      </c>
+      <c r="S8" s="70">
+        <v>1544</v>
+      </c>
+      <c r="T8" s="70">
+        <v>1614</v>
+      </c>
+      <c r="U8" s="70">
+        <v>1644</v>
+      </c>
+      <c r="V8" s="70">
+        <v>1714</v>
+      </c>
+      <c r="W8" s="70">
+        <v>1744</v>
+      </c>
+      <c r="X8" s="70">
+        <v>1814</v>
+      </c>
+      <c r="Y8" s="70">
+        <v>1838</v>
+      </c>
+      <c r="Z8" s="70">
+        <v>1932</v>
+      </c>
+      <c r="AA8" s="70">
+        <v>2032</v>
+      </c>
+      <c r="AB8" s="70">
+        <v>2132</v>
+      </c>
+      <c r="AC8" s="70">
+        <v>2232</v>
+      </c>
+      <c r="AD8" s="70">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="69">
+        <v>625</v>
+      </c>
+      <c r="C9" s="69">
+        <v>725</v>
+      </c>
+      <c r="D9" s="69">
+        <v>755</v>
+      </c>
+      <c r="E9" s="69">
+        <v>825</v>
+      </c>
+      <c r="F9" s="69">
+        <v>900</v>
+      </c>
+      <c r="G9" s="69">
+        <v>930</v>
+      </c>
+      <c r="H9" s="70">
+        <v>1005</v>
+      </c>
+      <c r="I9" s="70">
+        <v>1033</v>
+      </c>
+      <c r="J9" s="70">
+        <v>1103</v>
+      </c>
+      <c r="K9" s="70">
+        <v>1133</v>
+      </c>
+      <c r="L9" s="70">
+        <v>1203</v>
+      </c>
+      <c r="M9" s="70">
+        <v>1233</v>
+      </c>
+      <c r="N9" s="70">
+        <v>1313</v>
+      </c>
+      <c r="O9" s="70">
+        <v>1348</v>
+      </c>
+      <c r="P9" s="70">
+        <v>1418</v>
+      </c>
+      <c r="Q9" s="70">
+        <v>1448</v>
+      </c>
+      <c r="R9" s="70">
+        <v>1518</v>
+      </c>
+      <c r="S9" s="70">
+        <v>1550</v>
+      </c>
+      <c r="T9" s="70">
+        <v>1620</v>
+      </c>
+      <c r="U9" s="70">
+        <v>1650</v>
+      </c>
+      <c r="V9" s="70">
+        <v>1720</v>
+      </c>
+      <c r="W9" s="70">
+        <v>1750</v>
+      </c>
+      <c r="X9" s="70">
+        <v>1820</v>
+      </c>
+      <c r="Y9" s="70">
+        <v>1843</v>
+      </c>
+      <c r="Z9" s="70">
+        <v>1936</v>
+      </c>
+      <c r="AA9" s="70">
+        <v>2036</v>
+      </c>
+      <c r="AB9" s="70">
+        <v>2136</v>
+      </c>
+      <c r="AC9" s="70">
+        <v>2236</v>
+      </c>
+      <c r="AD9" s="70">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="69">
+        <v>629</v>
+      </c>
+      <c r="C10" s="69">
+        <v>729</v>
+      </c>
+      <c r="D10" s="69">
+        <v>759</v>
+      </c>
+      <c r="E10" s="69">
+        <v>829</v>
+      </c>
+      <c r="F10" s="69">
+        <v>904</v>
+      </c>
+      <c r="G10" s="69">
+        <v>934</v>
+      </c>
+      <c r="H10" s="70">
+        <v>1009</v>
+      </c>
+      <c r="I10" s="70">
+        <v>1037</v>
+      </c>
+      <c r="J10" s="70">
+        <v>1107</v>
+      </c>
+      <c r="K10" s="70">
+        <v>1137</v>
+      </c>
+      <c r="L10" s="70">
+        <v>1207</v>
+      </c>
+      <c r="M10" s="70">
+        <v>1237</v>
+      </c>
+      <c r="N10" s="70">
+        <v>1317</v>
+      </c>
+      <c r="O10" s="70">
+        <v>1352</v>
+      </c>
+      <c r="P10" s="70">
+        <v>1422</v>
+      </c>
+      <c r="Q10" s="70">
+        <v>1452</v>
+      </c>
+      <c r="R10" s="70">
+        <v>1522</v>
+      </c>
+      <c r="S10" s="70">
+        <v>1554</v>
+      </c>
+      <c r="T10" s="70">
+        <v>1624</v>
+      </c>
+      <c r="U10" s="70">
+        <v>1654</v>
+      </c>
+      <c r="V10" s="70">
+        <v>1724</v>
+      </c>
+      <c r="W10" s="70">
+        <v>1754</v>
+      </c>
+      <c r="X10" s="70">
+        <v>1824</v>
+      </c>
+      <c r="Y10" s="70">
+        <v>1846</v>
+      </c>
+      <c r="Z10" s="70">
+        <v>1939</v>
+      </c>
+      <c r="AA10" s="70">
+        <v>2039</v>
+      </c>
+      <c r="AB10" s="70">
+        <v>2139</v>
+      </c>
+      <c r="AC10" s="70">
+        <v>2239</v>
+      </c>
+      <c r="AD10" s="70">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="69">
+        <v>640</v>
+      </c>
+      <c r="C11" s="69">
+        <v>740</v>
+      </c>
+      <c r="D11" s="69">
+        <v>810</v>
+      </c>
+      <c r="E11" s="69">
+        <v>840</v>
+      </c>
+      <c r="F11" s="69">
+        <v>915</v>
+      </c>
+      <c r="G11" s="69">
+        <v>945</v>
+      </c>
+      <c r="H11" s="70">
+        <v>1020</v>
+      </c>
+      <c r="I11" s="70">
+        <v>1048</v>
+      </c>
+      <c r="J11" s="70">
+        <v>1118</v>
+      </c>
+      <c r="K11" s="70">
+        <v>1148</v>
+      </c>
+      <c r="L11" s="70">
+        <v>1218</v>
+      </c>
+      <c r="M11" s="70">
+        <v>1248</v>
+      </c>
+      <c r="N11" s="70">
+        <v>1328</v>
+      </c>
+      <c r="O11" s="70">
+        <v>1403</v>
+      </c>
+      <c r="P11" s="70">
+        <v>1433</v>
+      </c>
+      <c r="Q11" s="70">
+        <v>1503</v>
+      </c>
+      <c r="R11" s="70">
+        <v>1533</v>
+      </c>
+      <c r="S11" s="70">
+        <v>1605</v>
+      </c>
+      <c r="T11" s="70">
+        <v>1635</v>
+      </c>
+      <c r="U11" s="70">
+        <v>1705</v>
+      </c>
+      <c r="V11" s="70">
+        <v>1735</v>
+      </c>
+      <c r="W11" s="70">
+        <v>1805</v>
+      </c>
+      <c r="X11" s="70">
+        <v>1835</v>
+      </c>
+      <c r="Y11" s="70">
+        <v>1853</v>
+      </c>
+      <c r="Z11" s="70">
+        <v>1946</v>
+      </c>
+      <c r="AA11" s="70">
+        <v>2046</v>
+      </c>
+      <c r="AB11" s="70">
+        <v>2146</v>
+      </c>
+      <c r="AC11" s="70">
+        <v>2246</v>
+      </c>
+      <c r="AD11" s="70">
+        <v>2316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="69">
+        <v>645</v>
+      </c>
+      <c r="E2" s="69">
+        <v>715</v>
+      </c>
+      <c r="F2" s="69">
+        <v>745</v>
+      </c>
+      <c r="G2" s="69">
+        <v>820</v>
+      </c>
+      <c r="H2" s="69">
+        <v>850</v>
+      </c>
+      <c r="I2" s="70">
+        <v>925</v>
+      </c>
+      <c r="J2" s="70">
+        <v>955</v>
+      </c>
+      <c r="K2" s="70">
+        <v>1025</v>
+      </c>
+      <c r="L2" s="70">
+        <v>1055</v>
+      </c>
+      <c r="M2" s="70">
+        <v>1125</v>
+      </c>
+      <c r="N2" s="70">
+        <v>1155</v>
+      </c>
+      <c r="O2" s="70">
+        <v>1235</v>
+      </c>
+      <c r="P2" s="70">
+        <v>1310</v>
+      </c>
+      <c r="Q2" s="70">
+        <v>1340</v>
+      </c>
+      <c r="R2" s="70">
+        <v>1410</v>
+      </c>
+      <c r="S2" s="70">
+        <v>1440</v>
+      </c>
+      <c r="T2" s="70">
+        <v>1510</v>
+      </c>
+      <c r="U2" s="70">
+        <v>1540</v>
+      </c>
+      <c r="V2" s="70">
+        <v>1610</v>
+      </c>
+      <c r="W2" s="70">
+        <v>1640</v>
+      </c>
+      <c r="X2" s="70">
+        <v>1710</v>
+      </c>
+      <c r="Y2" s="70">
+        <v>1740</v>
+      </c>
+      <c r="Z2" s="70">
+        <v>1810</v>
+      </c>
+      <c r="AA2" s="70">
+        <v>1910</v>
+      </c>
+      <c r="AB2" s="70">
+        <v>2010</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>2110</v>
+      </c>
+      <c r="AD2" s="70">
+        <v>2150</v>
+      </c>
+      <c r="AE2" s="70">
+        <v>2250</v>
+      </c>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="70">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="69">
+        <v>657</v>
+      </c>
+      <c r="E3" s="69">
+        <v>727</v>
+      </c>
+      <c r="F3" s="69">
+        <v>757</v>
+      </c>
+      <c r="G3" s="69">
+        <v>834</v>
+      </c>
+      <c r="H3" s="69">
+        <v>904</v>
+      </c>
+      <c r="I3" s="70">
+        <v>938</v>
+      </c>
+      <c r="J3" s="70">
+        <v>1008</v>
+      </c>
+      <c r="K3" s="70">
+        <v>1038</v>
+      </c>
+      <c r="L3" s="70">
+        <v>1108</v>
+      </c>
+      <c r="M3" s="70">
+        <v>1138</v>
+      </c>
+      <c r="N3" s="70">
+        <v>1208</v>
+      </c>
+      <c r="O3" s="70">
+        <v>1248</v>
+      </c>
+      <c r="P3" s="70">
+        <v>1323</v>
+      </c>
+      <c r="Q3" s="70">
+        <v>1353</v>
+      </c>
+      <c r="R3" s="70">
+        <v>1423</v>
+      </c>
+      <c r="S3" s="70">
+        <v>1453</v>
+      </c>
+      <c r="T3" s="70">
+        <v>1524</v>
+      </c>
+      <c r="U3" s="70">
+        <v>1554</v>
+      </c>
+      <c r="V3" s="70">
+        <v>1624</v>
+      </c>
+      <c r="W3" s="70">
+        <v>1654</v>
+      </c>
+      <c r="X3" s="70">
+        <v>1724</v>
+      </c>
+      <c r="Y3" s="70">
+        <v>1754</v>
+      </c>
+      <c r="Z3" s="70">
+        <v>1820</v>
+      </c>
+      <c r="AA3" s="70">
+        <v>1920</v>
+      </c>
+      <c r="AB3" s="70">
+        <v>2020</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>2120</v>
+      </c>
+      <c r="AD3" s="70">
+        <v>2200</v>
+      </c>
+      <c r="AE3" s="70">
+        <v>2300</v>
+      </c>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="70">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="70">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="70">
+        <v>103</v>
+      </c>
+      <c r="AH4" s="70">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="70">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="70">
+        <v>107</v>
+      </c>
+      <c r="AH5" s="70">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="69">
+        <v>610</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="69">
+        <v>705</v>
+      </c>
+      <c r="E6" s="69">
+        <v>735</v>
+      </c>
+      <c r="F6" s="69">
+        <v>805</v>
+      </c>
+      <c r="G6" s="69">
+        <v>843</v>
+      </c>
+      <c r="H6" s="69">
+        <v>913</v>
+      </c>
+      <c r="I6" s="70">
+        <v>947</v>
+      </c>
+      <c r="J6" s="70">
+        <v>1017</v>
+      </c>
+      <c r="K6" s="70">
+        <v>1047</v>
+      </c>
+      <c r="L6" s="70">
+        <v>1117</v>
+      </c>
+      <c r="M6" s="70">
+        <v>1147</v>
+      </c>
+      <c r="N6" s="70">
+        <v>1217</v>
+      </c>
+      <c r="O6" s="70">
+        <v>1257</v>
+      </c>
+      <c r="P6" s="70">
+        <v>1332</v>
+      </c>
+      <c r="Q6" s="70">
+        <v>1402</v>
+      </c>
+      <c r="R6" s="70">
+        <v>1432</v>
+      </c>
+      <c r="S6" s="70">
+        <v>1502</v>
+      </c>
+      <c r="T6" s="70">
+        <v>1533</v>
+      </c>
+      <c r="U6" s="70">
+        <v>1603</v>
+      </c>
+      <c r="V6" s="70">
+        <v>1633</v>
+      </c>
+      <c r="W6" s="70">
+        <v>1703</v>
+      </c>
+      <c r="X6" s="70">
+        <v>1733</v>
+      </c>
+      <c r="Y6" s="70">
+        <v>1803</v>
+      </c>
+      <c r="Z6" s="70">
+        <v>1827</v>
+      </c>
+      <c r="AA6" s="70">
+        <v>1927</v>
+      </c>
+      <c r="AB6" s="70">
+        <v>2027</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>2127</v>
+      </c>
+      <c r="AD6" s="70">
+        <v>2207</v>
+      </c>
+      <c r="AE6" s="70">
+        <v>2307</v>
+      </c>
+      <c r="AF6" s="70">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="70">
+        <v>107</v>
+      </c>
+      <c r="AH6" s="70">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="69">
+        <v>620</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="69">
+        <v>715</v>
+      </c>
+      <c r="E7" s="69">
+        <v>745</v>
+      </c>
+      <c r="F7" s="69">
+        <v>815</v>
+      </c>
+      <c r="G7" s="69">
+        <v>853</v>
+      </c>
+      <c r="H7" s="69">
+        <v>923</v>
+      </c>
+      <c r="I7" s="70">
+        <v>957</v>
+      </c>
+      <c r="J7" s="70">
+        <v>1027</v>
+      </c>
+      <c r="K7" s="70">
+        <v>1057</v>
+      </c>
+      <c r="L7" s="70">
+        <v>1127</v>
+      </c>
+      <c r="M7" s="70">
+        <v>1157</v>
+      </c>
+      <c r="N7" s="70">
+        <v>1227</v>
+      </c>
+      <c r="O7" s="70">
+        <v>1307</v>
+      </c>
+      <c r="P7" s="70">
+        <v>1342</v>
+      </c>
+      <c r="Q7" s="70">
+        <v>1412</v>
+      </c>
+      <c r="R7" s="70">
+        <v>1442</v>
+      </c>
+      <c r="S7" s="70">
+        <v>1512</v>
+      </c>
+      <c r="T7" s="70">
+        <v>1543</v>
+      </c>
+      <c r="U7" s="70">
+        <v>1613</v>
+      </c>
+      <c r="V7" s="70">
+        <v>1643</v>
+      </c>
+      <c r="W7" s="70">
+        <v>1713</v>
+      </c>
+      <c r="X7" s="70">
+        <v>1743</v>
+      </c>
+      <c r="Y7" s="70">
+        <v>1813</v>
+      </c>
+      <c r="Z7" s="70">
+        <v>1835</v>
+      </c>
+      <c r="AA7" s="70">
+        <v>1935</v>
+      </c>
+      <c r="AB7" s="70">
+        <v>2035</v>
+      </c>
+      <c r="AC7" s="70">
+        <v>2135</v>
+      </c>
+      <c r="AD7" s="70">
+        <v>2215</v>
+      </c>
+      <c r="AE7" s="70">
+        <v>2315</v>
+      </c>
+      <c r="AF7" s="70">
+        <v>15</v>
+      </c>
+      <c r="AG7" s="70">
+        <v>115</v>
+      </c>
+      <c r="AH7" s="70">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="69">
+        <v>625</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="69">
+        <v>720</v>
+      </c>
+      <c r="E8" s="69">
+        <v>750</v>
+      </c>
+      <c r="F8" s="69">
+        <v>820</v>
+      </c>
+      <c r="G8" s="69">
+        <v>859</v>
+      </c>
+      <c r="H8" s="69">
+        <v>929</v>
+      </c>
+      <c r="I8" s="70">
+        <v>1003</v>
+      </c>
+      <c r="J8" s="70">
+        <v>1033</v>
+      </c>
+      <c r="K8" s="70">
+        <v>1103</v>
+      </c>
+      <c r="L8" s="70">
+        <v>1133</v>
+      </c>
+      <c r="M8" s="70">
+        <v>1203</v>
+      </c>
+      <c r="N8" s="70">
+        <v>1233</v>
+      </c>
+      <c r="O8" s="70">
+        <v>1313</v>
+      </c>
+      <c r="P8" s="70">
+        <v>1348</v>
+      </c>
+      <c r="Q8" s="70">
+        <v>1418</v>
+      </c>
+      <c r="R8" s="70">
+        <v>1448</v>
+      </c>
+      <c r="S8" s="70">
+        <v>1518</v>
+      </c>
+      <c r="T8" s="70">
+        <v>1549</v>
+      </c>
+      <c r="U8" s="70">
+        <v>1619</v>
+      </c>
+      <c r="V8" s="70">
+        <v>1649</v>
+      </c>
+      <c r="W8" s="70">
+        <v>1719</v>
+      </c>
+      <c r="X8" s="70">
+        <v>1749</v>
+      </c>
+      <c r="Y8" s="70">
+        <v>1819</v>
+      </c>
+      <c r="Z8" s="70">
+        <v>1840</v>
+      </c>
+      <c r="AA8" s="70">
+        <v>1940</v>
+      </c>
+      <c r="AB8" s="70">
+        <v>2040</v>
+      </c>
+      <c r="AC8" s="70">
+        <v>2140</v>
+      </c>
+      <c r="AD8" s="70">
+        <v>2220</v>
+      </c>
+      <c r="AE8" s="70">
+        <v>2320</v>
+      </c>
+      <c r="AF8" s="70">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="70">
+        <v>120</v>
+      </c>
+      <c r="AH8" s="70">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="69">
+        <v>630</v>
+      </c>
+      <c r="C9" s="69">
+        <v>700</v>
+      </c>
+      <c r="D9" s="69">
+        <v>725</v>
+      </c>
+      <c r="E9" s="69">
+        <v>755</v>
+      </c>
+      <c r="F9" s="69">
+        <v>825</v>
+      </c>
+      <c r="G9" s="69">
+        <v>905</v>
+      </c>
+      <c r="H9" s="69">
+        <v>935</v>
+      </c>
+      <c r="I9" s="70">
+        <v>1008</v>
+      </c>
+      <c r="J9" s="70">
+        <v>1038</v>
+      </c>
+      <c r="K9" s="70">
+        <v>1108</v>
+      </c>
+      <c r="L9" s="70">
+        <v>1138</v>
+      </c>
+      <c r="M9" s="70">
+        <v>1208</v>
+      </c>
+      <c r="N9" s="70">
+        <v>1238</v>
+      </c>
+      <c r="O9" s="70">
+        <v>1318</v>
+      </c>
+      <c r="P9" s="70">
+        <v>1353</v>
+      </c>
+      <c r="Q9" s="70">
+        <v>1423</v>
+      </c>
+      <c r="R9" s="70">
+        <v>1453</v>
+      </c>
+      <c r="S9" s="70">
+        <v>1523</v>
+      </c>
+      <c r="T9" s="70">
+        <v>1555</v>
+      </c>
+      <c r="U9" s="70">
+        <v>1625</v>
+      </c>
+      <c r="V9" s="70">
+        <v>1655</v>
+      </c>
+      <c r="W9" s="70">
+        <v>1725</v>
+      </c>
+      <c r="X9" s="70">
+        <v>1755</v>
+      </c>
+      <c r="Y9" s="70">
+        <v>1825</v>
+      </c>
+      <c r="Z9" s="70">
+        <v>1843</v>
+      </c>
+      <c r="AA9" s="70">
+        <v>1943</v>
+      </c>
+      <c r="AB9" s="70">
+        <v>2043</v>
+      </c>
+      <c r="AC9" s="70">
+        <v>2143</v>
+      </c>
+      <c r="AD9" s="70">
+        <v>2223</v>
+      </c>
+      <c r="AE9" s="70">
+        <v>2323</v>
+      </c>
+      <c r="AF9" s="70">
+        <v>23</v>
+      </c>
+      <c r="AG9" s="70">
+        <v>123</v>
+      </c>
+      <c r="AH9" s="70">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="70">
+        <v>1013</v>
+      </c>
+      <c r="J10" s="70">
+        <v>1043</v>
+      </c>
+      <c r="K10" s="70">
+        <v>1113</v>
+      </c>
+      <c r="L10" s="70">
+        <v>1143</v>
+      </c>
+      <c r="M10" s="70">
+        <v>1213</v>
+      </c>
+      <c r="N10" s="70">
+        <v>1243</v>
+      </c>
+      <c r="O10" s="70">
+        <v>1323</v>
+      </c>
+      <c r="P10" s="70">
+        <v>1358</v>
+      </c>
+      <c r="Q10" s="70">
+        <v>1428</v>
+      </c>
+      <c r="R10" s="70">
+        <v>1458</v>
+      </c>
+      <c r="S10" s="70">
+        <v>1528</v>
+      </c>
+      <c r="T10" s="70">
+        <v>1600</v>
+      </c>
+      <c r="U10" s="70">
+        <v>1630</v>
+      </c>
+      <c r="V10" s="70">
+        <v>1700</v>
+      </c>
+      <c r="W10" s="70">
+        <v>1730</v>
+      </c>
+      <c r="X10" s="70">
+        <v>1800</v>
+      </c>
+      <c r="Y10" s="70">
+        <v>1830</v>
+      </c>
+      <c r="Z10" s="70">
+        <v>1849</v>
+      </c>
+      <c r="AA10" s="70">
+        <v>1949</v>
+      </c>
+      <c r="AB10" s="70">
+        <v>2049</v>
+      </c>
+      <c r="AC10" s="70">
+        <v>2149</v>
+      </c>
+      <c r="AD10" s="70">
+        <v>2229</v>
+      </c>
+      <c r="AE10" s="70">
+        <v>2329</v>
+      </c>
+      <c r="AF10" s="70">
+        <v>29</v>
+      </c>
+      <c r="AG10" s="70">
+        <v>129</v>
+      </c>
+      <c r="AH10" s="70">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="69">
+        <v>640</v>
+      </c>
+      <c r="C11" s="69">
+        <v>710</v>
+      </c>
+      <c r="D11" s="69">
+        <v>735</v>
+      </c>
+      <c r="E11" s="69">
+        <v>805</v>
+      </c>
+      <c r="F11" s="69">
+        <v>835</v>
+      </c>
+      <c r="G11" s="69">
+        <v>915</v>
+      </c>
+      <c r="H11" s="69">
+        <v>945</v>
+      </c>
+      <c r="I11" s="70">
+        <v>1018</v>
+      </c>
+      <c r="J11" s="70">
+        <v>1048</v>
+      </c>
+      <c r="K11" s="70">
+        <v>1118</v>
+      </c>
+      <c r="L11" s="70">
+        <v>1148</v>
+      </c>
+      <c r="M11" s="70">
+        <v>1218</v>
+      </c>
+      <c r="N11" s="70">
+        <v>1248</v>
+      </c>
+      <c r="O11" s="70">
+        <v>1328</v>
+      </c>
+      <c r="P11" s="70">
+        <v>1403</v>
+      </c>
+      <c r="Q11" s="70">
+        <v>1433</v>
+      </c>
+      <c r="R11" s="70">
+        <v>1503</v>
+      </c>
+      <c r="S11" s="70">
+        <v>1533</v>
+      </c>
+      <c r="T11" s="70">
+        <v>1605</v>
+      </c>
+      <c r="U11" s="70">
+        <v>1635</v>
+      </c>
+      <c r="V11" s="70">
+        <v>1705</v>
+      </c>
+      <c r="W11" s="70">
+        <v>1735</v>
+      </c>
+      <c r="X11" s="70">
+        <v>1805</v>
+      </c>
+      <c r="Y11" s="70">
+        <v>1835</v>
+      </c>
+      <c r="Z11" s="70">
+        <v>1853</v>
+      </c>
+      <c r="AA11" s="70">
+        <v>1953</v>
+      </c>
+      <c r="AB11" s="70">
+        <v>2053</v>
+      </c>
+      <c r="AC11" s="70">
+        <v>2153</v>
+      </c>
+      <c r="AD11" s="70">
+        <v>2233</v>
+      </c>
+      <c r="AE11" s="70">
+        <v>2333</v>
+      </c>
+      <c r="AF11" s="70">
+        <v>33</v>
+      </c>
+      <c r="AG11" s="70">
+        <v>133</v>
+      </c>
+      <c r="AH11" s="70">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD11"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="40">
+        <v>755</v>
+      </c>
+      <c r="C2" s="40">
+        <v>825</v>
+      </c>
+      <c r="D2" s="40">
+        <v>855</v>
+      </c>
+      <c r="E2" s="40">
+        <v>925</v>
+      </c>
+      <c r="F2" s="40">
+        <v>955</v>
+      </c>
+      <c r="G2" s="40">
+        <v>1025</v>
+      </c>
+      <c r="H2" s="40">
+        <v>1055</v>
+      </c>
+      <c r="I2" s="40">
+        <v>1125</v>
+      </c>
+      <c r="J2" s="40">
+        <v>1155</v>
+      </c>
+      <c r="K2" s="40">
+        <v>1235</v>
+      </c>
+      <c r="L2" s="40">
+        <v>1310</v>
+      </c>
+      <c r="M2" s="40">
+        <v>1340</v>
+      </c>
+      <c r="N2" s="40">
+        <v>1410</v>
+      </c>
+      <c r="O2" s="40">
+        <v>1440</v>
+      </c>
+      <c r="P2" s="40">
+        <v>1510</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>1540</v>
+      </c>
+      <c r="R2" s="40">
+        <v>1610</v>
+      </c>
+      <c r="S2" s="40">
+        <v>1640</v>
+      </c>
+      <c r="T2" s="40">
+        <v>1710</v>
+      </c>
+      <c r="U2" s="40">
+        <v>1740</v>
+      </c>
+      <c r="V2" s="40">
+        <v>1810</v>
+      </c>
+      <c r="W2" s="40">
+        <v>1905</v>
+      </c>
+      <c r="X2" s="40">
+        <v>2005</v>
+      </c>
+      <c r="Y2" s="40">
+        <v>2105</v>
+      </c>
+      <c r="Z2" s="40">
+        <v>2205</v>
+      </c>
+      <c r="AA2" s="40">
+        <v>2235</v>
+      </c>
+      <c r="AB2" s="40">
+        <v>2335</v>
+      </c>
+      <c r="AC2" s="40">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="40">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="40">
+        <v>759</v>
+      </c>
+      <c r="C3" s="40">
+        <v>829</v>
+      </c>
+      <c r="D3" s="40">
+        <v>859</v>
+      </c>
+      <c r="E3" s="40">
+        <v>929</v>
+      </c>
+      <c r="F3" s="40">
+        <v>959</v>
+      </c>
+      <c r="G3" s="40">
+        <v>1029</v>
+      </c>
+      <c r="H3" s="40">
+        <v>1059</v>
+      </c>
+      <c r="I3" s="40">
+        <v>1129</v>
+      </c>
+      <c r="J3" s="40">
+        <v>1159</v>
+      </c>
+      <c r="K3" s="40">
+        <v>1239</v>
+      </c>
+      <c r="L3" s="40">
+        <v>1314</v>
+      </c>
+      <c r="M3" s="40">
+        <v>1344</v>
+      </c>
+      <c r="N3" s="40">
+        <v>1414</v>
+      </c>
+      <c r="O3" s="40">
+        <v>1444</v>
+      </c>
+      <c r="P3" s="40">
+        <v>1514</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>1544</v>
+      </c>
+      <c r="R3" s="40">
+        <v>1614</v>
+      </c>
+      <c r="S3" s="40">
+        <v>1644</v>
+      </c>
+      <c r="T3" s="40">
+        <v>1714</v>
+      </c>
+      <c r="U3" s="40">
+        <v>1744</v>
+      </c>
+      <c r="V3" s="40">
+        <v>1813</v>
+      </c>
+      <c r="W3" s="40">
+        <v>1908</v>
+      </c>
+      <c r="X3" s="40">
+        <v>2008</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>2108</v>
+      </c>
+      <c r="Z3" s="40">
+        <v>2208</v>
+      </c>
+      <c r="AA3" s="40">
+        <v>2238</v>
+      </c>
+      <c r="AB3" s="40">
+        <v>2338</v>
+      </c>
+      <c r="AC3" s="40">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="40">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="40">
+        <v>804</v>
+      </c>
+      <c r="C4" s="40">
+        <v>834</v>
+      </c>
+      <c r="D4" s="40">
+        <v>904</v>
+      </c>
+      <c r="E4" s="40">
+        <v>934</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1004</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1034</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1104</v>
+      </c>
+      <c r="I4" s="40">
+        <v>1134</v>
+      </c>
+      <c r="J4" s="40">
+        <v>1204</v>
+      </c>
+      <c r="K4" s="40">
+        <v>1244</v>
+      </c>
+      <c r="L4" s="40">
+        <v>1319</v>
+      </c>
+      <c r="M4" s="40">
+        <v>1349</v>
+      </c>
+      <c r="N4" s="40">
+        <v>1419</v>
+      </c>
+      <c r="O4" s="40">
+        <v>1449</v>
+      </c>
+      <c r="P4" s="40">
+        <v>1519</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>1549</v>
+      </c>
+      <c r="R4" s="40">
+        <v>1619</v>
+      </c>
+      <c r="S4" s="40">
+        <v>1649</v>
+      </c>
+      <c r="T4" s="40">
+        <v>1719</v>
+      </c>
+      <c r="U4" s="40">
+        <v>1749</v>
+      </c>
+      <c r="V4" s="40">
+        <v>1818</v>
+      </c>
+      <c r="W4" s="40">
+        <v>1913</v>
+      </c>
+      <c r="X4" s="40">
+        <v>2013</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>2113</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>2213</v>
+      </c>
+      <c r="AA4" s="40">
+        <v>2243</v>
+      </c>
+      <c r="AB4" s="40">
+        <v>2343</v>
+      </c>
+      <c r="AC4" s="40">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="40">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="40">
+        <v>811</v>
+      </c>
+      <c r="C5" s="40">
+        <v>841</v>
+      </c>
+      <c r="D5" s="40">
+        <v>911</v>
+      </c>
+      <c r="E5" s="40">
+        <v>941</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1011</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1041</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1111</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1141</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1211</v>
+      </c>
+      <c r="K5" s="40">
+        <v>1251</v>
+      </c>
+      <c r="L5" s="40">
+        <v>1326</v>
+      </c>
+      <c r="M5" s="40">
+        <v>1356</v>
+      </c>
+      <c r="N5" s="40">
+        <v>1426</v>
+      </c>
+      <c r="O5" s="40">
+        <v>1456</v>
+      </c>
+      <c r="P5" s="40">
+        <v>1526</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>1556</v>
+      </c>
+      <c r="R5" s="40">
+        <v>1626</v>
+      </c>
+      <c r="S5" s="40">
+        <v>1656</v>
+      </c>
+      <c r="T5" s="40">
+        <v>1726</v>
+      </c>
+      <c r="U5" s="40">
+        <v>1756</v>
+      </c>
+      <c r="V5" s="40">
+        <v>1825</v>
+      </c>
+      <c r="W5" s="40">
+        <v>1919</v>
+      </c>
+      <c r="X5" s="40">
+        <v>2019</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>2119</v>
+      </c>
+      <c r="Z5" s="40">
+        <v>2219</v>
+      </c>
+      <c r="AA5" s="40">
+        <v>2249</v>
+      </c>
+      <c r="AB5" s="40">
+        <v>2349</v>
+      </c>
+      <c r="AC5" s="40">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="40">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="40">
+        <v>818</v>
+      </c>
+      <c r="C6" s="40">
+        <v>848</v>
+      </c>
+      <c r="D6" s="40">
+        <v>918</v>
+      </c>
+      <c r="E6" s="40">
+        <v>948</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1018</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1048</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1118</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1148</v>
+      </c>
+      <c r="J6" s="40">
+        <v>1218</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1258</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1333</v>
+      </c>
+      <c r="M6" s="40">
+        <v>1403</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1433</v>
+      </c>
+      <c r="O6" s="40">
+        <v>1503</v>
+      </c>
+      <c r="P6" s="40">
+        <v>1533</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>1603</v>
+      </c>
+      <c r="R6" s="40">
+        <v>1633</v>
+      </c>
+      <c r="S6" s="40">
+        <v>1703</v>
+      </c>
+      <c r="T6" s="40">
+        <v>1733</v>
+      </c>
+      <c r="U6" s="40">
+        <v>1803</v>
+      </c>
+      <c r="V6" s="40">
+        <v>1830</v>
+      </c>
+      <c r="W6" s="40">
+        <v>1924</v>
+      </c>
+      <c r="X6" s="40">
+        <v>2024</v>
+      </c>
+      <c r="Y6" s="40">
+        <v>2124</v>
+      </c>
+      <c r="Z6" s="40">
+        <v>2224</v>
+      </c>
+      <c r="AA6" s="40">
+        <v>2254</v>
+      </c>
+      <c r="AB6" s="40">
+        <v>2354</v>
+      </c>
+      <c r="AC6" s="40">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="40">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="40">
+        <v>825</v>
+      </c>
+      <c r="C7" s="40">
+        <v>855</v>
+      </c>
+      <c r="D7" s="40">
+        <v>925</v>
+      </c>
+      <c r="E7" s="40">
+        <v>955</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1025</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1055</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1125</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1155</v>
+      </c>
+      <c r="J7" s="40">
+        <v>1225</v>
+      </c>
+      <c r="K7" s="40">
+        <v>1305</v>
+      </c>
+      <c r="L7" s="40">
+        <v>1340</v>
+      </c>
+      <c r="M7" s="40">
+        <v>1410</v>
+      </c>
+      <c r="N7" s="40">
+        <v>1440</v>
+      </c>
+      <c r="O7" s="40">
+        <v>1510</v>
+      </c>
+      <c r="P7" s="40">
+        <v>1540</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>1610</v>
+      </c>
+      <c r="R7" s="40">
+        <v>1640</v>
+      </c>
+      <c r="S7" s="40">
+        <v>1710</v>
+      </c>
+      <c r="T7" s="40">
+        <v>1740</v>
+      </c>
+      <c r="U7" s="40">
+        <v>1810</v>
+      </c>
+      <c r="V7" s="40">
+        <v>1837</v>
+      </c>
+      <c r="W7" s="40">
+        <v>1931</v>
+      </c>
+      <c r="X7" s="40">
+        <v>2031</v>
+      </c>
+      <c r="Y7" s="40">
+        <v>2131</v>
+      </c>
+      <c r="Z7" s="40">
+        <v>2231</v>
+      </c>
+      <c r="AA7" s="40">
+        <v>2301</v>
+      </c>
+      <c r="AB7" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="40">
+        <v>101</v>
+      </c>
+      <c r="AD7" s="40">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="40">
+        <v>827</v>
+      </c>
+      <c r="C8" s="40">
+        <v>857</v>
+      </c>
+      <c r="D8" s="40">
+        <v>927</v>
+      </c>
+      <c r="E8" s="40">
+        <v>957</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1027</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1057</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1127</v>
+      </c>
+      <c r="I8" s="40">
+        <v>1157</v>
+      </c>
+      <c r="J8" s="40">
+        <v>1227</v>
+      </c>
+      <c r="K8" s="40">
+        <v>1307</v>
+      </c>
+      <c r="L8" s="40">
+        <v>1342</v>
+      </c>
+      <c r="M8" s="40">
+        <v>1412</v>
+      </c>
+      <c r="N8" s="40">
+        <v>1442</v>
+      </c>
+      <c r="O8" s="40">
+        <v>1512</v>
+      </c>
+      <c r="P8" s="40">
+        <v>1542</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>1612</v>
+      </c>
+      <c r="R8" s="40">
+        <v>1642</v>
+      </c>
+      <c r="S8" s="40">
+        <v>1712</v>
+      </c>
+      <c r="T8" s="40">
+        <v>1742</v>
+      </c>
+      <c r="U8" s="40">
+        <v>1812</v>
+      </c>
+      <c r="V8" s="40">
+        <v>1838</v>
+      </c>
+      <c r="W8" s="40">
+        <v>1932</v>
+      </c>
+      <c r="X8" s="40">
+        <v>2032</v>
+      </c>
+      <c r="Y8" s="40">
+        <v>2132</v>
+      </c>
+      <c r="Z8" s="40">
+        <v>2232</v>
+      </c>
+      <c r="AA8" s="40">
+        <v>2302</v>
+      </c>
+      <c r="AB8" s="40">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="40">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="40">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="40">
+        <v>833</v>
+      </c>
+      <c r="C9" s="40">
+        <v>903</v>
+      </c>
+      <c r="D9" s="40">
+        <v>933</v>
+      </c>
+      <c r="E9" s="40">
+        <v>1003</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1033</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1103</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1133</v>
+      </c>
+      <c r="I9" s="40">
+        <v>1203</v>
+      </c>
+      <c r="J9" s="40">
+        <v>1233</v>
+      </c>
+      <c r="K9" s="40">
+        <v>1313</v>
+      </c>
+      <c r="L9" s="40">
+        <v>1348</v>
+      </c>
+      <c r="M9" s="40">
+        <v>1418</v>
+      </c>
+      <c r="N9" s="40">
+        <v>1448</v>
+      </c>
+      <c r="O9" s="40">
+        <v>1518</v>
+      </c>
+      <c r="P9" s="40">
+        <v>1548</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>1618</v>
+      </c>
+      <c r="R9" s="40">
+        <v>1648</v>
+      </c>
+      <c r="S9" s="40">
+        <v>1718</v>
+      </c>
+      <c r="T9" s="40">
+        <v>1748</v>
+      </c>
+      <c r="U9" s="40">
+        <v>1818</v>
+      </c>
+      <c r="V9" s="40">
+        <v>1843</v>
+      </c>
+      <c r="W9" s="40">
+        <v>1936</v>
+      </c>
+      <c r="X9" s="40">
+        <v>2036</v>
+      </c>
+      <c r="Y9" s="40">
+        <v>2136</v>
+      </c>
+      <c r="Z9" s="40">
+        <v>2236</v>
+      </c>
+      <c r="AA9" s="40">
+        <v>2306</v>
+      </c>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="40">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="40">
+        <v>837</v>
+      </c>
+      <c r="C10" s="40">
+        <v>907</v>
+      </c>
+      <c r="D10" s="40">
+        <v>937</v>
+      </c>
+      <c r="E10" s="40">
+        <v>1007</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1037</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1107</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1137</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1207</v>
+      </c>
+      <c r="J10" s="40">
+        <v>1237</v>
+      </c>
+      <c r="K10" s="40">
+        <v>1317</v>
+      </c>
+      <c r="L10" s="40">
+        <v>1352</v>
+      </c>
+      <c r="M10" s="40">
+        <v>1422</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1452</v>
+      </c>
+      <c r="O10" s="40">
+        <v>1522</v>
+      </c>
+      <c r="P10" s="40">
+        <v>1552</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>1622</v>
+      </c>
+      <c r="R10" s="40">
+        <v>1652</v>
+      </c>
+      <c r="S10" s="40">
+        <v>1722</v>
+      </c>
+      <c r="T10" s="40">
+        <v>1752</v>
+      </c>
+      <c r="U10" s="40">
+        <v>1822</v>
+      </c>
+      <c r="V10" s="40">
+        <v>1846</v>
+      </c>
+      <c r="W10" s="40">
+        <v>1939</v>
+      </c>
+      <c r="X10" s="40">
+        <v>2039</v>
+      </c>
+      <c r="Y10" s="40">
+        <v>2139</v>
+      </c>
+      <c r="Z10" s="40">
+        <v>2239</v>
+      </c>
+      <c r="AA10" s="40">
+        <v>2309</v>
+      </c>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="40">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="40">
+        <v>848</v>
+      </c>
+      <c r="C11" s="40">
+        <v>918</v>
+      </c>
+      <c r="D11" s="40">
+        <v>948</v>
+      </c>
+      <c r="E11" s="40">
+        <v>1018</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1048</v>
+      </c>
+      <c r="G11" s="40">
+        <v>1118</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1148</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1218</v>
+      </c>
+      <c r="J11" s="40">
+        <v>1248</v>
+      </c>
+      <c r="K11" s="40">
+        <v>1328</v>
+      </c>
+      <c r="L11" s="40">
+        <v>1403</v>
+      </c>
+      <c r="M11" s="40">
+        <v>1433</v>
+      </c>
+      <c r="N11" s="40">
+        <v>1503</v>
+      </c>
+      <c r="O11" s="40">
+        <v>1533</v>
+      </c>
+      <c r="P11" s="40">
+        <v>1603</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>1633</v>
+      </c>
+      <c r="R11" s="40">
+        <v>1703</v>
+      </c>
+      <c r="S11" s="40">
+        <v>1733</v>
+      </c>
+      <c r="T11" s="40">
+        <v>1803</v>
+      </c>
+      <c r="U11" s="40">
+        <v>1833</v>
+      </c>
+      <c r="V11" s="40">
+        <v>1853</v>
+      </c>
+      <c r="W11" s="40">
+        <v>1946</v>
+      </c>
+      <c r="X11" s="40">
+        <v>2046</v>
+      </c>
+      <c r="Y11" s="40">
+        <v>2146</v>
+      </c>
+      <c r="Z11" s="40">
+        <v>2246</v>
+      </c>
+      <c r="AA11" s="40">
+        <v>2316</v>
+      </c>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="40">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>